--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>71.329076</v>
+        <v>110.3882446666667</v>
       </c>
       <c r="H2">
-        <v>213.987228</v>
+        <v>331.164734</v>
       </c>
       <c r="I2">
-        <v>0.3307464087015077</v>
+        <v>0.4177264991141899</v>
       </c>
       <c r="J2">
-        <v>0.3307464087015077</v>
+        <v>0.4177264991141899</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.482117666666667</v>
+        <v>0.2799683333333333</v>
       </c>
       <c r="N2">
-        <v>4.446353</v>
+        <v>0.839905</v>
       </c>
       <c r="O2">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="P2">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="Q2">
-        <v>105.7180836866093</v>
+        <v>30.90521287891888</v>
       </c>
       <c r="R2">
-        <v>951.4627531794841</v>
+        <v>278.14691591027</v>
       </c>
       <c r="S2">
-        <v>0.04636499905115028</v>
+        <v>0.01229391908187977</v>
       </c>
       <c r="T2">
-        <v>0.04636499905115028</v>
+        <v>0.01229391908187977</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>71.329076</v>
+        <v>110.3882446666667</v>
       </c>
       <c r="H3">
-        <v>213.987228</v>
+        <v>331.164734</v>
       </c>
       <c r="I3">
-        <v>0.3307464087015077</v>
+        <v>0.4177264991141899</v>
       </c>
       <c r="J3">
-        <v>0.3307464087015077</v>
+        <v>0.4177264991141899</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.097371</v>
       </c>
       <c r="O3">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732164</v>
       </c>
       <c r="P3">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732163</v>
       </c>
       <c r="Q3">
-        <v>168.7496384863987</v>
+        <v>261.1554421460349</v>
       </c>
       <c r="R3">
-        <v>1518.746746377588</v>
+        <v>2350.398979314314</v>
       </c>
       <c r="S3">
-        <v>0.07400887866542794</v>
+        <v>0.1038861594681305</v>
       </c>
       <c r="T3">
-        <v>0.07400887866542794</v>
+        <v>0.1038861594681305</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>71.329076</v>
+        <v>110.3882446666667</v>
       </c>
       <c r="H4">
-        <v>213.987228</v>
+        <v>331.164734</v>
       </c>
       <c r="I4">
-        <v>0.3307464087015077</v>
+        <v>0.4177264991141899</v>
       </c>
       <c r="J4">
-        <v>0.3307464087015077</v>
+        <v>0.4177264991141899</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.724832333333334</v>
+        <v>6.86709</v>
       </c>
       <c r="N4">
-        <v>20.174497</v>
+        <v>20.60127</v>
       </c>
       <c r="O4">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="P4">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="Q4">
-        <v>479.6760765915907</v>
+        <v>758.0460110680199</v>
       </c>
       <c r="R4">
-        <v>4317.084689324317</v>
+        <v>6822.414099612179</v>
       </c>
       <c r="S4">
-        <v>0.2103725309849295</v>
+        <v>0.3015464205641796</v>
       </c>
       <c r="T4">
-        <v>0.2103725309849295</v>
+        <v>0.3015464205641796</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>388.684601</v>
       </c>
       <c r="I5">
-        <v>0.6007649947142102</v>
+        <v>0.4902812436402899</v>
       </c>
       <c r="J5">
-        <v>0.6007649947142101</v>
+        <v>0.4902812436402899</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.482117666666667</v>
+        <v>0.2799683333333333</v>
       </c>
       <c r="N5">
-        <v>4.446353</v>
+        <v>0.839905</v>
       </c>
       <c r="O5">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="P5">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="Q5">
-        <v>192.0254379677948</v>
+        <v>36.27312664476722</v>
       </c>
       <c r="R5">
-        <v>1728.228941710153</v>
+        <v>326.4581398029051</v>
       </c>
       <c r="S5">
-        <v>0.08421699428043307</v>
+        <v>0.01442924485149656</v>
       </c>
       <c r="T5">
-        <v>0.08421699428043307</v>
+        <v>0.01442924485149656</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>388.684601</v>
       </c>
       <c r="I6">
-        <v>0.6007649947142102</v>
+        <v>0.4902812436402899</v>
       </c>
       <c r="J6">
-        <v>0.6007649947142101</v>
+        <v>0.4902812436402899</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.097371</v>
       </c>
       <c r="O6">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732164</v>
       </c>
       <c r="P6">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732163</v>
       </c>
       <c r="Q6">
         <v>306.5154239204413</v>
@@ -818,10 +818,10 @@
         <v>2758.638815283971</v>
       </c>
       <c r="S6">
-        <v>0.1344291046871698</v>
+        <v>0.1219301039533173</v>
       </c>
       <c r="T6">
-        <v>0.1344291046871698</v>
+        <v>0.1219301039533173</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>388.684601</v>
       </c>
       <c r="I7">
-        <v>0.6007649947142102</v>
+        <v>0.4902812436402899</v>
       </c>
       <c r="J7">
-        <v>0.6007649947142101</v>
+        <v>0.4902812436402899</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.724832333333334</v>
+        <v>6.86709</v>
       </c>
       <c r="N7">
-        <v>20.174497</v>
+        <v>20.60127</v>
       </c>
       <c r="O7">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="P7">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="Q7">
-        <v>871.2795907578555</v>
+        <v>889.7107122270302</v>
       </c>
       <c r="R7">
-        <v>7841.516316820699</v>
+        <v>8007.39641004327</v>
       </c>
       <c r="S7">
-        <v>0.3821188957466072</v>
+        <v>0.353921894835476</v>
       </c>
       <c r="T7">
-        <v>0.3821188957466072</v>
+        <v>0.353921894835476</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.770314</v>
+        <v>24.30983866666667</v>
       </c>
       <c r="H8">
-        <v>44.310942</v>
+        <v>72.92951600000001</v>
       </c>
       <c r="I8">
-        <v>0.06848859658428214</v>
+        <v>0.09199225724552029</v>
       </c>
       <c r="J8">
-        <v>0.06848859658428214</v>
+        <v>0.09199225724552029</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.482117666666667</v>
+        <v>0.2799683333333333</v>
       </c>
       <c r="N8">
-        <v>4.446353</v>
+        <v>0.839905</v>
       </c>
       <c r="O8">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="P8">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="Q8">
-        <v>21.891343321614</v>
+        <v>6.805985015108889</v>
       </c>
       <c r="R8">
-        <v>197.022089894526</v>
+        <v>61.25386513598001</v>
       </c>
       <c r="S8">
-        <v>0.009600931807881425</v>
+        <v>0.002707382388079572</v>
       </c>
       <c r="T8">
-        <v>0.009600931807881427</v>
+        <v>0.002707382388079572</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.770314</v>
+        <v>24.30983866666667</v>
       </c>
       <c r="H9">
-        <v>44.310942</v>
+        <v>72.92951600000001</v>
       </c>
       <c r="I9">
-        <v>0.06848859658428214</v>
+        <v>0.09199225724552029</v>
       </c>
       <c r="J9">
-        <v>0.06848859658428214</v>
+        <v>0.09199225724552029</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>7.097371</v>
       </c>
       <c r="O9">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732164</v>
       </c>
       <c r="P9">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732163</v>
       </c>
       <c r="Q9">
-        <v>34.943466081498</v>
+        <v>57.51198132249289</v>
       </c>
       <c r="R9">
-        <v>314.491194733482</v>
+        <v>517.607831902436</v>
       </c>
       <c r="S9">
-        <v>0.01532522833572485</v>
+        <v>0.02287794125176859</v>
       </c>
       <c r="T9">
-        <v>0.01532522833572485</v>
+        <v>0.02287794125176859</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.770314</v>
+        <v>24.30983866666667</v>
       </c>
       <c r="H10">
-        <v>44.310942</v>
+        <v>72.92951600000001</v>
       </c>
       <c r="I10">
-        <v>0.06848859658428214</v>
+        <v>0.09199225724552029</v>
       </c>
       <c r="J10">
-        <v>0.06848859658428214</v>
+        <v>0.09199225724552029</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.724832333333334</v>
+        <v>6.86709</v>
       </c>
       <c r="N10">
-        <v>20.174497</v>
+        <v>20.60127</v>
       </c>
       <c r="O10">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="P10">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="Q10">
-        <v>99.32788516068601</v>
+        <v>166.93785000948</v>
       </c>
       <c r="R10">
-        <v>893.950966446174</v>
+        <v>1502.44065008532</v>
       </c>
       <c r="S10">
-        <v>0.04356243644067585</v>
+        <v>0.06640693360567212</v>
       </c>
       <c r="T10">
-        <v>0.04356243644067585</v>
+        <v>0.06640693360567212</v>
       </c>
     </row>
   </sheetData>
